--- a/03-03 Differentiation Rules/finite_differences_2.xlsx
+++ b/03-03 Differentiation Rules/finite_differences_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Constant" sheetId="1" state="visible" r:id="rId2"/>
@@ -135,11 +135,11 @@
   </sheetPr>
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -982,7 +982,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1926,7 +1926,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2870,7 +2870,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3810,11 +3810,11 @@
   </sheetPr>
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
